--- a/raw.xlsx
+++ b/raw.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\sideproject\pyscript-generator\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\sideproject\potential-train\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75A63BE0-25BB-43D8-8F5D-C7562BFE76CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15100DF-F2AD-4912-98B2-4970BED8F509}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="6735" xr2:uid="{FBFB4310-D649-4A35-A43F-D694B8B8B80F}"/>
   </bookViews>
